--- a/Proj/Game/ZGame Invo.xlsx
+++ b/Proj/Game/ZGame Invo.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\jl2286716\LeducJames_CIS12_48075\Proj\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7680" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7680" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Templates" sheetId="1" r:id="rId1"/>
-    <sheet name="Weapons" sheetId="2" r:id="rId2"/>
-    <sheet name="Armor" sheetId="3" r:id="rId3"/>
-    <sheet name="Consumables" sheetId="5" r:id="rId4"/>
-    <sheet name="Items" sheetId="4" r:id="rId5"/>
+    <sheet name="Characters" sheetId="6" r:id="rId2"/>
+    <sheet name="Weapons" sheetId="2" r:id="rId3"/>
+    <sheet name="Armor" sheetId="3" r:id="rId4"/>
+    <sheet name="Consumables" sheetId="5" r:id="rId5"/>
+    <sheet name="Items" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="117">
   <si>
     <t>Current Health</t>
   </si>
@@ -348,6 +349,48 @@
   </si>
   <si>
     <t>Arrow</t>
+  </si>
+  <si>
+    <t>Riot Helmet</t>
+  </si>
+  <si>
+    <t>Critical Hits = Power * 1.5</t>
+  </si>
+  <si>
+    <t>Health</t>
+  </si>
+  <si>
+    <t>def - 10</t>
+  </si>
+  <si>
+    <t>Ghoulish</t>
+  </si>
+  <si>
+    <t>Load</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Necro Walker</t>
+  </si>
+  <si>
+    <t>Erin</t>
+  </si>
+  <si>
+    <t>Thug</t>
+  </si>
+  <si>
+    <t>Elisa</t>
+  </si>
+  <si>
+    <t>Brute</t>
+  </si>
+  <si>
+    <t>Hell Hound</t>
+  </si>
+  <si>
+    <t>Hell Cat</t>
   </si>
 </sst>
 </file>
@@ -1334,6 +1377,360 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="I1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2">
+        <v>200</v>
+      </c>
+      <c r="C2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>50</v>
+      </c>
+      <c r="E3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8">
+        <v>200</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>60</v>
+      </c>
+      <c r="E9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F9">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>22</v>
+      </c>
+      <c r="E10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="E12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>55</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>18</v>
+      </c>
+      <c r="E15" t="s">
+        <v>105</v>
+      </c>
+      <c r="F15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="E17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18">
+        <v>200</v>
+      </c>
+      <c r="E18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>105</v>
+      </c>
+      <c r="F21">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E26" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>105</v>
+      </c>
+      <c r="F27">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E32" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
+        <v>105</v>
+      </c>
+      <c r="F33">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E35" t="s">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F36">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A12:B12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -2970,16 +3367,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4015,7 +4413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>39</v>
       </c>
@@ -4029,7 +4427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>40</v>
       </c>
@@ -4043,7 +4441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>57</v>
       </c>
@@ -4057,7 +4455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>42</v>
       </c>
@@ -4071,7 +4469,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>43</v>
       </c>
@@ -4085,7 +4483,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>10</v>
       </c>
@@ -4094,8 +4492,12 @@
         <v>10</v>
       </c>
       <c r="E55" s="4"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G55" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H55" s="4"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>46</v>
       </c>
@@ -4108,8 +4510,14 @@
       <c r="E56" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>45</v>
       </c>
@@ -4122,8 +4530,14 @@
       <c r="E57" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>44</v>
       </c>
@@ -4136,8 +4550,14 @@
       <c r="E58" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G58" t="s">
+        <v>44</v>
+      </c>
+      <c r="H58" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>50</v>
       </c>
@@ -4148,10 +4568,16 @@
         <v>50</v>
       </c>
       <c r="E59">
+        <v>20</v>
+      </c>
+      <c r="G59" t="s">
+        <v>50</v>
+      </c>
+      <c r="H59">
         <v>40</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>27</v>
       </c>
@@ -4162,10 +4588,16 @@
         <v>27</v>
       </c>
       <c r="E60">
+        <v>20</v>
+      </c>
+      <c r="G60" t="s">
+        <v>27</v>
+      </c>
+      <c r="H60">
         <v>40</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>29</v>
       </c>
@@ -4176,10 +4608,16 @@
         <v>29</v>
       </c>
       <c r="E61">
+        <v>10</v>
+      </c>
+      <c r="G61" t="s">
+        <v>29</v>
+      </c>
+      <c r="H61">
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>30</v>
       </c>
@@ -4190,10 +4628,16 @@
         <v>30</v>
       </c>
       <c r="E62">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-3</v>
+      </c>
+      <c r="G62" t="s">
+        <v>30</v>
+      </c>
+      <c r="H62">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>31</v>
       </c>
@@ -4206,8 +4650,14 @@
       <c r="E63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G63" t="s">
+        <v>31</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>32</v>
       </c>
@@ -4218,10 +4668,16 @@
         <v>32</v>
       </c>
       <c r="E64">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-3</v>
+      </c>
+      <c r="G64" t="s">
+        <v>32</v>
+      </c>
+      <c r="H64">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>60</v>
       </c>
@@ -4232,10 +4688,16 @@
         <v>60</v>
       </c>
       <c r="E65">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-3</v>
+      </c>
+      <c r="G65" t="s">
+        <v>60</v>
+      </c>
+      <c r="H65">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>38</v>
       </c>
@@ -4248,8 +4710,14 @@
       <c r="E66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G66" t="s">
+        <v>38</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>39</v>
       </c>
@@ -4262,8 +4730,14 @@
       <c r="E67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G67" t="s">
+        <v>39</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>40</v>
       </c>
@@ -4276,8 +4750,14 @@
       <c r="E68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G68" t="s">
+        <v>40</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>57</v>
       </c>
@@ -4290,8 +4770,14 @@
       <c r="E69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G69" t="s">
+        <v>57</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>42</v>
       </c>
@@ -4304,8 +4790,14 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G70" t="s">
+        <v>42</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>43</v>
       </c>
@@ -4318,27 +4810,34 @@
       <c r="E71">
         <v>0</v>
       </c>
+      <c r="G71" t="s">
+        <v>43</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="J19:K19"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="A55:B55"/>
     <mergeCell ref="D55:E55"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="J19:K19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K71"/>
   <sheetViews>
@@ -5692,11 +6191,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="J37:K37"/>
     <mergeCell ref="A55:B55"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -5704,12 +6198,17 @@
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="G19:H19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="J37:K37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K55"/>
   <sheetViews>
@@ -6088,11 +6587,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="J37:K37"/>
     <mergeCell ref="A55:B55"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -6100,6 +6594,11 @@
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="G19:H19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="J37:K37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Proj/Game/ZGame Invo.xlsx
+++ b/Proj/Game/ZGame Invo.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="119">
   <si>
     <t>Current Health</t>
   </si>
@@ -391,6 +391,12 @@
   </si>
   <si>
     <t>Hell Cat</t>
+  </si>
+  <si>
+    <t>Zombie</t>
+  </si>
+  <si>
+    <t>Desperate</t>
   </si>
 </sst>
 </file>
@@ -1377,353 +1383,392 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="4"/>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="H3" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="K3" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="L3" s="4"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>105</v>
       </c>
-      <c r="B2">
+      <c r="B4">
         <v>200</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C4" t="s">
         <v>106</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="E4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="H4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I4">
+        <v>120</v>
+      </c>
+      <c r="K4" t="s">
+        <v>105</v>
+      </c>
+      <c r="L4">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B5">
         <v>50</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="H5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>15</v>
+      </c>
+      <c r="K5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>30</v>
+      </c>
+      <c r="H6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>20</v>
+      </c>
+      <c r="K6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>20</v>
+      </c>
+      <c r="H7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7">
+        <v>15</v>
+      </c>
+      <c r="K7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="E9" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="H9" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="K9" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>105</v>
       </c>
-      <c r="F3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B10">
+        <v>200</v>
+      </c>
+      <c r="E10" t="s">
+        <v>105</v>
+      </c>
+      <c r="F10">
+        <v>150</v>
+      </c>
+      <c r="H10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I10">
+        <v>200</v>
+      </c>
+      <c r="K10" t="s">
+        <v>105</v>
+      </c>
+      <c r="L10">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>60</v>
+      </c>
+      <c r="E11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="H11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11">
+        <v>20</v>
+      </c>
+      <c r="K11" t="s">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="B12">
+        <v>22</v>
+      </c>
+      <c r="E12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>30</v>
+      </c>
+      <c r="H12" t="s">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>60</v>
+      </c>
+      <c r="K12" t="s">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>10</v>
+      </c>
+      <c r="H13" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13">
+        <v>25</v>
+      </c>
+      <c r="K13" t="s">
+        <v>4</v>
+      </c>
+      <c r="L13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" s="4"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B15">
+        <v>200</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="H15" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>55</v>
+      </c>
+      <c r="E16" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16">
+        <v>65</v>
+      </c>
+      <c r="H16" t="s">
+        <v>105</v>
+      </c>
+      <c r="I16">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>18</v>
+      </c>
+      <c r="E17" t="s">
         <v>3</v>
       </c>
-      <c r="F4">
+      <c r="F17">
+        <v>10</v>
+      </c>
+      <c r="H17" t="s">
+        <v>3</v>
+      </c>
+      <c r="I17">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B5">
-        <v>25</v>
-      </c>
-      <c r="E5" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
         <v>2</v>
       </c>
-      <c r="F5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E6" t="s">
+      <c r="F18">
+        <v>60</v>
+      </c>
+      <c r="H18" t="s">
+        <v>2</v>
+      </c>
+      <c r="I18">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="E19" t="s">
         <v>4</v>
       </c>
-      <c r="F6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B7" s="4"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="F19">
+        <v>15</v>
+      </c>
+      <c r="H19" t="s">
+        <v>4</v>
+      </c>
+      <c r="I19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>105</v>
       </c>
-      <c r="B8">
+      <c r="B20">
         <v>200</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>2</v>
       </c>
-      <c r="B9">
-        <v>60</v>
-      </c>
-      <c r="E9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F9">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B21">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>4</v>
       </c>
-      <c r="B10">
-        <v>22</v>
-      </c>
-      <c r="E10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="E12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>105</v>
-      </c>
-      <c r="B13">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14">
-        <v>55</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15">
-        <v>18</v>
-      </c>
-      <c r="E15" t="s">
-        <v>105</v>
-      </c>
-      <c r="F15">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="E17" t="s">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>105</v>
-      </c>
-      <c r="B18">
-        <v>200</v>
-      </c>
-      <c r="E18" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20">
+      <c r="B22">
         <v>19</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="F20" s="4"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E21" t="s">
-        <v>105</v>
-      </c>
-      <c r="F21">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F23">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E24" t="s">
-        <v>4</v>
-      </c>
-      <c r="F24">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E26" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F26" s="4"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E27" t="s">
-        <v>105</v>
-      </c>
-      <c r="F27">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E28" t="s">
-        <v>3</v>
-      </c>
-      <c r="F28">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E29" t="s">
-        <v>2</v>
-      </c>
-      <c r="F29">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E30" t="s">
-        <v>4</v>
-      </c>
-      <c r="F30">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E32" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="F32" s="4"/>
-    </row>
-    <row r="33" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E33" t="s">
-        <v>105</v>
-      </c>
-      <c r="F33">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F34">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E35" t="s">
-        <v>2</v>
-      </c>
-      <c r="F35">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="36" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E36" t="s">
-        <v>4</v>
-      </c>
-      <c r="F36">
-        <v>10</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A12:B12"/>
+  <mergeCells count="12">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="K9:L9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1733,8 +1778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q53"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37:H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3371,8 +3416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K71"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J65" sqref="J65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6191,6 +6236,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="J37:K37"/>
     <mergeCell ref="A55:B55"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -6198,11 +6248,6 @@
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="G19:H19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="J37:K37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6587,6 +6632,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="J37:K37"/>
     <mergeCell ref="A55:B55"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -6594,11 +6644,6 @@
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="G19:H19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="J37:K37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
